--- a/exercises/ex0/images/AD267_Users.xlsx
+++ b/exercises/ex0/images/AD267_Users.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I567308\Desktop\AD267_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAB87ED-4F2C-4433-9662-42A8DE650965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E09C37-924C-4B82-8D19-7DF43F5CC979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1AF46F3A-A74F-4B7F-BA9B-3734A20D079B}"/>
+    <workbookView xWindow="29265" yWindow="840" windowWidth="17280" windowHeight="14640" xr2:uid="{1AF46F3A-A74F-4B7F-BA9B-3734A20D079B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="265">
   <si>
     <t>ABAP users</t>
   </si>
@@ -60,159 +61,6 @@
     <t>@gmail.com</t>
   </si>
   <si>
-    <t>lowcodeuser+700@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+701@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+702@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+703@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+704@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+705@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+706@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+707@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+708@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+709@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+710@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+711@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+712@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+713@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+714@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+715@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+716@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+717@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+718@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+719@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+720@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+721@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+722@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+723@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+724@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+725@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+726@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+727@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+728@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+729@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+730@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+731@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+732@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+733@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+734@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+735@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+736@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+737@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+738@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+739@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+740@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+741@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+742@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+743@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+744@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+745@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+746@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+747@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+748@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+749@gmail.com</t>
-  </si>
-  <si>
-    <t>lowcodeuser+750@gmail.com</t>
-  </si>
-  <si>
     <t>Abcd</t>
   </si>
   <si>
@@ -528,131 +376,470 @@
     <t>Lowcode750</t>
   </si>
   <si>
-    <t>Seat 1</t>
-  </si>
-  <si>
-    <t>Seat 2</t>
-  </si>
-  <si>
-    <t>Seat 3</t>
-  </si>
-  <si>
-    <t>Seat 4</t>
-  </si>
-  <si>
-    <t>Seat 5</t>
-  </si>
-  <si>
-    <t>Seat 6</t>
-  </si>
-  <si>
-    <t>Seat 7</t>
-  </si>
-  <si>
-    <t>Seat 8</t>
-  </si>
-  <si>
-    <t>Seat 9</t>
-  </si>
-  <si>
-    <t>Seat 10</t>
-  </si>
-  <si>
-    <t>Seat 11</t>
-  </si>
-  <si>
-    <t>Seat 12</t>
-  </si>
-  <si>
-    <t>Seat 13</t>
-  </si>
-  <si>
-    <t>Seat 14</t>
-  </si>
-  <si>
-    <t>Seat 15</t>
-  </si>
-  <si>
-    <t>Seat 16</t>
-  </si>
-  <si>
-    <t>Seat 17</t>
-  </si>
-  <si>
-    <t>Seat 18</t>
-  </si>
-  <si>
-    <t>Seat 19</t>
-  </si>
-  <si>
-    <t>Seat 20</t>
-  </si>
-  <si>
-    <t>Seat 21</t>
-  </si>
-  <si>
-    <t>Seat 22</t>
-  </si>
-  <si>
-    <t>Seat 23</t>
-  </si>
-  <si>
-    <t>Seat 24</t>
-  </si>
-  <si>
-    <t>Seat 25</t>
-  </si>
-  <si>
-    <t>Seat 26</t>
-  </si>
-  <si>
-    <t>Seat 27</t>
-  </si>
-  <si>
-    <t>Seat 28</t>
-  </si>
-  <si>
-    <t>Seat 29</t>
-  </si>
-  <si>
-    <t>Seat 30</t>
-  </si>
-  <si>
-    <t>Seat 31</t>
-  </si>
-  <si>
-    <t>Seat 32</t>
-  </si>
-  <si>
-    <t>Seat 33</t>
-  </si>
-  <si>
-    <t>Seat 34</t>
-  </si>
-  <si>
-    <t>Seat 35</t>
-  </si>
-  <si>
-    <t>Seat 36</t>
-  </si>
-  <si>
-    <t>Seat 37</t>
-  </si>
-  <si>
-    <t>Seat 38</t>
-  </si>
-  <si>
-    <t>Seat 39</t>
-  </si>
-  <si>
-    <t>Seat 40</t>
+    <t>lowcodeuser+0700@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0701@gmail.com</t>
+  </si>
+  <si>
+    <t>0700</t>
+  </si>
+  <si>
+    <t>0701</t>
+  </si>
+  <si>
+    <t>0702</t>
+  </si>
+  <si>
+    <t>0703</t>
+  </si>
+  <si>
+    <t>0704</t>
+  </si>
+  <si>
+    <t>0705</t>
+  </si>
+  <si>
+    <t>0706</t>
+  </si>
+  <si>
+    <t>0707</t>
+  </si>
+  <si>
+    <t>0708</t>
+  </si>
+  <si>
+    <t>0709</t>
+  </si>
+  <si>
+    <t>0710</t>
+  </si>
+  <si>
+    <t>0711</t>
+  </si>
+  <si>
+    <t>0712</t>
+  </si>
+  <si>
+    <t>0713</t>
+  </si>
+  <si>
+    <t>0714</t>
+  </si>
+  <si>
+    <t>0715</t>
+  </si>
+  <si>
+    <t>0716</t>
+  </si>
+  <si>
+    <t>0717</t>
+  </si>
+  <si>
+    <t>0718</t>
+  </si>
+  <si>
+    <t>0719</t>
+  </si>
+  <si>
+    <t>0720</t>
+  </si>
+  <si>
+    <t>0721</t>
+  </si>
+  <si>
+    <t>0722</t>
+  </si>
+  <si>
+    <t>0723</t>
+  </si>
+  <si>
+    <t>0724</t>
+  </si>
+  <si>
+    <t>0725</t>
+  </si>
+  <si>
+    <t>0726</t>
+  </si>
+  <si>
+    <t>0727</t>
+  </si>
+  <si>
+    <t>0728</t>
+  </si>
+  <si>
+    <t>0729</t>
+  </si>
+  <si>
+    <t>0730</t>
+  </si>
+  <si>
+    <t>0731</t>
+  </si>
+  <si>
+    <t>0732</t>
+  </si>
+  <si>
+    <t>0733</t>
+  </si>
+  <si>
+    <t>0734</t>
+  </si>
+  <si>
+    <t>0735</t>
+  </si>
+  <si>
+    <t>0736</t>
+  </si>
+  <si>
+    <t>0737</t>
+  </si>
+  <si>
+    <t>0738</t>
+  </si>
+  <si>
+    <t>0739</t>
+  </si>
+  <si>
+    <t>0740</t>
+  </si>
+  <si>
+    <t>0741</t>
+  </si>
+  <si>
+    <t>0742</t>
+  </si>
+  <si>
+    <t>0743</t>
+  </si>
+  <si>
+    <t>0744</t>
+  </si>
+  <si>
+    <t>0745</t>
+  </si>
+  <si>
+    <t>0746</t>
+  </si>
+  <si>
+    <t>0747</t>
+  </si>
+  <si>
+    <t>0748</t>
+  </si>
+  <si>
+    <t>0749</t>
+  </si>
+  <si>
+    <t>0750</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0702@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0703@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0704@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0705@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0706@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0707@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0708@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0709@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0710@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0711@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0712@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0713@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0714@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0715@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0716@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0717@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0718@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0719@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0720@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0721@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0722@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0723@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0724@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0725@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0726@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0727@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0728@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0729@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0730@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0731@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0732@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0733@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0734@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0735@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0736@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0737@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0738@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0739@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0740@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0741@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0742@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0743@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0744@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0745@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0746@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0747@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0748@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0749@gmail.com</t>
+  </si>
+  <si>
+    <t>lowcodeuser+0750@gmail.com</t>
+  </si>
+  <si>
+    <t>Session A Seat 001</t>
+  </si>
+  <si>
+    <t>Session A Seat 002</t>
+  </si>
+  <si>
+    <t>Session A Seat 003</t>
+  </si>
+  <si>
+    <t>Session A Seat 004</t>
+  </si>
+  <si>
+    <t>Session A Seat 005</t>
+  </si>
+  <si>
+    <t>Session A Seat 006</t>
+  </si>
+  <si>
+    <t>Session A Seat 007</t>
+  </si>
+  <si>
+    <t>Session A Seat 008</t>
+  </si>
+  <si>
+    <t>Session A Seat 009</t>
+  </si>
+  <si>
+    <t>Session A Seat 010</t>
+  </si>
+  <si>
+    <t>Session A Seat 011</t>
+  </si>
+  <si>
+    <t>Session A Seat 012</t>
+  </si>
+  <si>
+    <t>Session A Seat 013</t>
+  </si>
+  <si>
+    <t>Session A Seat 014</t>
+  </si>
+  <si>
+    <t>Session A Seat 015</t>
+  </si>
+  <si>
+    <t>Session A Seat 016</t>
+  </si>
+  <si>
+    <t>Session A Seat 017</t>
+  </si>
+  <si>
+    <t>Session A Seat 018</t>
+  </si>
+  <si>
+    <t>Session A Seat 019</t>
+  </si>
+  <si>
+    <t>Session A Seat 020</t>
+  </si>
+  <si>
+    <t>Session A Seat 021</t>
+  </si>
+  <si>
+    <t>Session A Seat 022</t>
+  </si>
+  <si>
+    <t>Session A Seat 023</t>
+  </si>
+  <si>
+    <t>Session A Seat 024</t>
+  </si>
+  <si>
+    <t>Session A Seat 025</t>
+  </si>
+  <si>
+    <t>Session A Seat 026</t>
+  </si>
+  <si>
+    <t>Session A Seat 027</t>
+  </si>
+  <si>
+    <t>Session A Seat 028</t>
+  </si>
+  <si>
+    <t>Session A Seat 029</t>
+  </si>
+  <si>
+    <t>Session A Seat 030</t>
+  </si>
+  <si>
+    <t>Session A Seat 031</t>
+  </si>
+  <si>
+    <t>Session A Seat 032</t>
+  </si>
+  <si>
+    <t>Session A Seat 033</t>
+  </si>
+  <si>
+    <t>Session A Seat 034</t>
+  </si>
+  <si>
+    <t>Session A Seat 035</t>
+  </si>
+  <si>
+    <t>Session A Seat 036</t>
+  </si>
+  <si>
+    <t>Session A Seat 037</t>
+  </si>
+  <si>
+    <t>Session A Seat 038</t>
+  </si>
+  <si>
+    <t>Session A Seat 039</t>
+  </si>
+  <si>
+    <t>Session A Seat 040</t>
+  </si>
+  <si>
+    <t>Session A Seat 041</t>
+  </si>
+  <si>
+    <t>Session A Seat 042</t>
+  </si>
+  <si>
+    <t>Session A Seat 043</t>
+  </si>
+  <si>
+    <t>Session A Seat 044</t>
+  </si>
+  <si>
+    <t>Session A Seat 045</t>
+  </si>
+  <si>
+    <t>Session A Seat 046</t>
+  </si>
+  <si>
+    <t>Session A Seat 047</t>
+  </si>
+  <si>
+    <t>Session A Seat 048</t>
+  </si>
+  <si>
+    <t>Session A Seat 049</t>
+  </si>
+  <si>
+    <t>Session A Seat 050</t>
+  </si>
+  <si>
+    <t>Session A Seat 051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +863,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -719,18 +914,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1046,7 +1244,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G42"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1252,7 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
@@ -1089,993 +1287,1053 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G47" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G49" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G52" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G53" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{61A5989B-4E1D-402F-AF93-75C44B69FC90}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{8408DCEE-CED4-41F3-9A35-2BE1E0B39DDC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7DD05C-F02E-4CCF-B26D-9EC3239A7610}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B8A34E-0340-4668-8E5E-D8BBE85B38E7}">
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N51" sqref="N1:N51"/>
+      <selection activeCell="D51" sqref="D1:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2087,1635 +2345,1636 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1">
-        <v>700</v>
+      <c r="B1" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="str">
-        <f>_xlfn.CONCAT(A1,B1,C1)</f>
-        <v>lowcodeuser+700@gmail.com</v>
+        <f t="shared" ref="D1:D32" si="0">_xlfn.CONCAT(A1,B1,C1)</f>
+        <v>lowcodeuser+0700@gmail.com</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K1" t="str">
         <f>_xlfn.CONCAT(I1,B1,J1)</f>
-        <v>Abcd700!$</v>
+        <v>Abcd0700!$</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N1" t="str">
         <f>_xlfn.CONCAT(M1,B1)</f>
-        <v>Lowcode700</v>
+        <v>Lowcode0700</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>701</v>
+      <c r="B2" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="str">
-        <f>_xlfn.CONCAT(A2,B2,C2)</f>
-        <v>lowcodeuser+701@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0701@gmail.com</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K51" si="0">_xlfn.CONCAT(I2,B2,J2)</f>
-        <v>Abcd701!$</v>
+        <f t="shared" ref="K2:K51" si="1">_xlfn.CONCAT(I2,B2,J2)</f>
+        <v>Abcd0701!$</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N51" si="1">_xlfn.CONCAT(M2,B2)</f>
-        <v>Lowcode701</v>
+        <f t="shared" ref="N2:N51" si="2">_xlfn.CONCAT(M2,B2)</f>
+        <v>Lowcode0701</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>702</v>
+      <c r="B3" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="str">
-        <f>_xlfn.CONCAT(A3,B3,C3)</f>
-        <v>lowcodeuser+702@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0702@gmail.com</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd702!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0702!$</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode702</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0702</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>703</v>
+      <c r="B4" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.CONCAT(A4,B4,C4)</f>
-        <v>lowcodeuser+703@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0703@gmail.com</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd703!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0703!$</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode703</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0703</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>704</v>
+      <c r="B5" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="str">
-        <f>_xlfn.CONCAT(A5,B5,C5)</f>
-        <v>lowcodeuser+704@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0704@gmail.com</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd704!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0704!$</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode704</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0704</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>705</v>
+      <c r="B6" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="str">
-        <f>_xlfn.CONCAT(A6,B6,C6)</f>
-        <v>lowcodeuser+705@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0705@gmail.com</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd705!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0705!$</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode705</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0705</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>706</v>
+      <c r="B7" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="str">
-        <f>_xlfn.CONCAT(A7,B7,C7)</f>
-        <v>lowcodeuser+706@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0706@gmail.com</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd706!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0706!$</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode706</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0706</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>707</v>
+      <c r="B8" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="str">
-        <f>_xlfn.CONCAT(A8,B8,C8)</f>
-        <v>lowcodeuser+707@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0707@gmail.com</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd707!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0707!$</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode707</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0707</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>708</v>
+      <c r="B9" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="str">
-        <f>_xlfn.CONCAT(A9,B9,C9)</f>
-        <v>lowcodeuser+708@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0708@gmail.com</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd708!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0708!$</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode708</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0708</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>709</v>
+      <c r="B10" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="str">
-        <f>_xlfn.CONCAT(A10,B10,C10)</f>
-        <v>lowcodeuser+709@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0709@gmail.com</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd709!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0709!$</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode709</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0709</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>710</v>
+      <c r="B11" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="str">
-        <f>_xlfn.CONCAT(A11,B11,C11)</f>
-        <v>lowcodeuser+710@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0710@gmail.com</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd710!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0710!$</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode710</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0710</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>711</v>
+      <c r="B12" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="str">
-        <f>_xlfn.CONCAT(A12,B12,C12)</f>
-        <v>lowcodeuser+711@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0711@gmail.com</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd711!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0711!$</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode711</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0711</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>712</v>
+      <c r="B13" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="str">
-        <f>_xlfn.CONCAT(A13,B13,C13)</f>
-        <v>lowcodeuser+712@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0712@gmail.com</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd712!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0712!$</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode712</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0712</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
-        <v>713</v>
+      <c r="B14" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="str">
-        <f>_xlfn.CONCAT(A14,B14,C14)</f>
-        <v>lowcodeuser+713@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0713@gmail.com</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd713!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0713!$</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode713</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0713</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
-        <v>714</v>
+      <c r="B15" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="str">
-        <f>_xlfn.CONCAT(A15,B15,C15)</f>
-        <v>lowcodeuser+714@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0714@gmail.com</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd714!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0714!$</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode714</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0714</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
-        <v>715</v>
+      <c r="B16" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="str">
-        <f>_xlfn.CONCAT(A16,B16,C16)</f>
-        <v>lowcodeuser+715@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0715@gmail.com</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd715!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0715!$</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode715</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0715</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
-        <v>716</v>
+      <c r="B17" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="str">
-        <f>_xlfn.CONCAT(A17,B17,C17)</f>
-        <v>lowcodeuser+716@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0716@gmail.com</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd716!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0716!$</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode716</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0716</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>717</v>
+      <c r="B18" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="str">
-        <f>_xlfn.CONCAT(A18,B18,C18)</f>
-        <v>lowcodeuser+717@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0717@gmail.com</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd717!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0717!$</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode717</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0717</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19">
-        <v>718</v>
+      <c r="B19" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="str">
-        <f>_xlfn.CONCAT(A19,B19,C19)</f>
-        <v>lowcodeuser+718@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0718@gmail.com</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd718!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0718!$</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode718</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0718</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>719</v>
+      <c r="B20" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="str">
-        <f>_xlfn.CONCAT(A20,B20,C20)</f>
-        <v>lowcodeuser+719@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0719@gmail.com</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd719!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0719!$</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode719</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0719</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21">
-        <v>720</v>
+      <c r="B21" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="str">
-        <f>_xlfn.CONCAT(A21,B21,C21)</f>
-        <v>lowcodeuser+720@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0720@gmail.com</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd720!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0720!$</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode720</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0720</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22">
-        <v>721</v>
+      <c r="B22" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="str">
-        <f>_xlfn.CONCAT(A22,B22,C22)</f>
-        <v>lowcodeuser+721@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0721@gmail.com</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd721!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0721!$</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode721</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0721</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23">
-        <v>722</v>
+      <c r="B23" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="str">
-        <f>_xlfn.CONCAT(A23,B23,C23)</f>
-        <v>lowcodeuser+722@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0722@gmail.com</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd722!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0722!$</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode722</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0722</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24">
-        <v>723</v>
+      <c r="B24" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="str">
-        <f>_xlfn.CONCAT(A24,B24,C24)</f>
-        <v>lowcodeuser+723@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0723@gmail.com</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd723!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0723!$</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode723</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0723</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25">
-        <v>724</v>
+      <c r="B25" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="str">
-        <f>_xlfn.CONCAT(A25,B25,C25)</f>
-        <v>lowcodeuser+724@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0724@gmail.com</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd724!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0724!$</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode724</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0724</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26">
-        <v>725</v>
+      <c r="B26" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="str">
-        <f>_xlfn.CONCAT(A26,B26,C26)</f>
-        <v>lowcodeuser+725@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0725@gmail.com</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd725!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0725!$</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode725</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0725</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27">
-        <v>726</v>
+      <c r="B27" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="str">
-        <f>_xlfn.CONCAT(A27,B27,C27)</f>
-        <v>lowcodeuser+726@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0726@gmail.com</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd726!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0726!$</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode726</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0726</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B28">
-        <v>727</v>
+      <c r="B28" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="str">
-        <f>_xlfn.CONCAT(A28,B28,C28)</f>
-        <v>lowcodeuser+727@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0727@gmail.com</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd727!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0727!$</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode727</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0727</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29">
-        <v>728</v>
+      <c r="B29" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="str">
-        <f>_xlfn.CONCAT(A29,B29,C29)</f>
-        <v>lowcodeuser+728@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0728@gmail.com</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd728!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0728!$</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode728</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0728</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30">
-        <v>729</v>
+      <c r="B30" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="str">
-        <f>_xlfn.CONCAT(A30,B30,C30)</f>
-        <v>lowcodeuser+729@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0729@gmail.com</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd729!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0729!$</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode729</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0729</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31">
-        <v>730</v>
+      <c r="B31" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="str">
-        <f>_xlfn.CONCAT(A31,B31,C31)</f>
-        <v>lowcodeuser+730@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0730@gmail.com</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd730!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0730!$</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode730</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0730</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B32">
-        <v>731</v>
+      <c r="B32" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="str">
-        <f>_xlfn.CONCAT(A32,B32,C32)</f>
-        <v>lowcodeuser+731@gmail.com</v>
+        <f t="shared" si="0"/>
+        <v>lowcodeuser+0731@gmail.com</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J32" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd731!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0731!$</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode731</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0731</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
-      <c r="B33">
-        <v>732</v>
+      <c r="B33" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="str">
-        <f>_xlfn.CONCAT(A33,B33,C33)</f>
-        <v>lowcodeuser+732@gmail.com</v>
+        <f t="shared" ref="D33:D51" si="3">_xlfn.CONCAT(A33,B33,C33)</f>
+        <v>lowcodeuser+0732@gmail.com</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J33" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd732!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0732!$</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode732</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0732</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B34">
-        <v>733</v>
+      <c r="B34" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="str">
-        <f>_xlfn.CONCAT(A34,B34,C34)</f>
-        <v>lowcodeuser+733@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0733@gmail.com</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J34" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd733!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0733!$</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode733</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0733</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B35">
-        <v>734</v>
+      <c r="B35" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="str">
-        <f>_xlfn.CONCAT(A35,B35,C35)</f>
-        <v>lowcodeuser+734@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0734@gmail.com</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd734!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0734!$</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode734</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0734</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
-      <c r="B36">
-        <v>735</v>
+      <c r="B36" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="str">
-        <f>_xlfn.CONCAT(A36,B36,C36)</f>
-        <v>lowcodeuser+735@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0735@gmail.com</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd735!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0735!$</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode735</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0735</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37">
-        <v>736</v>
+      <c r="B37" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="str">
-        <f>_xlfn.CONCAT(A37,B37,C37)</f>
-        <v>lowcodeuser+736@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0736@gmail.com</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J37" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd736!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0736!$</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode736</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0736</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="B38">
-        <v>737</v>
+      <c r="B38" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="str">
-        <f>_xlfn.CONCAT(A38,B38,C38)</f>
-        <v>lowcodeuser+737@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0737@gmail.com</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd737!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0737!$</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode737</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0737</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39">
-        <v>738</v>
+      <c r="B39" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="str">
-        <f>_xlfn.CONCAT(A39,B39,C39)</f>
-        <v>lowcodeuser+738@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0738@gmail.com</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd738!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0738!$</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode738</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0738</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="B40">
-        <v>739</v>
+      <c r="B40" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D40" t="str">
-        <f>_xlfn.CONCAT(A40,B40,C40)</f>
-        <v>lowcodeuser+739@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0739@gmail.com</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J40" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd739!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0739!$</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode739</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0739</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B41">
-        <v>740</v>
+      <c r="B41" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="str">
-        <f>_xlfn.CONCAT(A41,B41,C41)</f>
-        <v>lowcodeuser+740@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0740@gmail.com</v>
       </c>
       <c r="I41" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J41" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd740!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0740!$</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode740</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0740</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42">
-        <v>741</v>
+      <c r="B42" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="str">
-        <f>_xlfn.CONCAT(A42,B42,C42)</f>
-        <v>lowcodeuser+741@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0741@gmail.com</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J42" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd741!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0741!$</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode741</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0741</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
-      <c r="B43">
-        <v>742</v>
+      <c r="B43" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="str">
-        <f>_xlfn.CONCAT(A43,B43,C43)</f>
-        <v>lowcodeuser+742@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0742@gmail.com</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J43" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd742!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0742!$</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode742</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0742</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="B44">
-        <v>743</v>
+      <c r="B44" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="str">
-        <f>_xlfn.CONCAT(A44,B44,C44)</f>
-        <v>lowcodeuser+743@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0743@gmail.com</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J44" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd743!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0743!$</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode743</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0743</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="B45">
-        <v>744</v>
+      <c r="B45" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="str">
-        <f>_xlfn.CONCAT(A45,B45,C45)</f>
-        <v>lowcodeuser+744@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0744@gmail.com</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd744!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0744!$</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode744</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0744</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
-      <c r="B46">
-        <v>745</v>
+      <c r="B46" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="str">
-        <f>_xlfn.CONCAT(A46,B46,C46)</f>
-        <v>lowcodeuser+745@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0745@gmail.com</v>
       </c>
       <c r="I46" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd745!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0745!$</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode745</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0745</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
-      <c r="B47">
-        <v>746</v>
+      <c r="B47" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D47" t="str">
-        <f>_xlfn.CONCAT(A47,B47,C47)</f>
-        <v>lowcodeuser+746@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0746@gmail.com</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J47" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd746!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0746!$</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode746</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0746</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
-      <c r="B48">
-        <v>747</v>
+      <c r="B48" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D48" t="str">
-        <f>_xlfn.CONCAT(A48,B48,C48)</f>
-        <v>lowcodeuser+747@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0747@gmail.com</v>
       </c>
       <c r="I48" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J48" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd747!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0747!$</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode747</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0747</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B49">
-        <v>748</v>
+      <c r="B49" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D49" t="str">
-        <f>_xlfn.CONCAT(A49,B49,C49)</f>
-        <v>lowcodeuser+748@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0748@gmail.com</v>
       </c>
       <c r="I49" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J49" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd748!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0748!$</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode748</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0748</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
-      <c r="B50">
-        <v>749</v>
+      <c r="B50" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D50" t="str">
-        <f>_xlfn.CONCAT(A50,B50,C50)</f>
-        <v>lowcodeuser+749@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0749@gmail.com</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J50" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd749!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0749!$</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode749</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0749</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
-      <c r="B51">
-        <v>750</v>
+      <c r="B51" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D51" t="str">
-        <f>_xlfn.CONCAT(A51,B51,C51)</f>
-        <v>lowcodeuser+750@gmail.com</v>
+        <f t="shared" si="3"/>
+        <v>lowcodeuser+0750@gmail.com</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="0"/>
-        <v>Abcd750!$</v>
+        <f t="shared" si="1"/>
+        <v>Abcd0750!$</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="1"/>
-        <v>Lowcode750</v>
+        <f t="shared" si="2"/>
+        <v>Lowcode0750</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>